--- a/Report, presentation and related stuff/Experiments Hill Climbing.xlsx
+++ b/Report, presentation and related stuff/Experiments Hill Climbing.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26606"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\GitHub\PP3\Report, presentation and related stuff\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicolagheza/Dropbox/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7035" yWindow="465" windowWidth="18915" windowHeight="14715" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="193">
   <si>
     <t>All experiments run on an 2,9 GHz Intel Core i7 processor</t>
   </si>
@@ -68,9 +68,6 @@
     <t>Random Mutation: 1 package; Rotations: disabled</t>
   </si>
   <si>
-    <t>216.52</t>
-  </si>
-  <si>
     <t>125.51</t>
   </si>
   <si>
@@ -95,12 +92,6 @@
     <t>14.66</t>
   </si>
   <si>
-    <t>220.56</t>
-  </si>
-  <si>
-    <t>25.04</t>
-  </si>
-  <si>
     <t>31.73</t>
   </si>
   <si>
@@ -110,9 +101,6 @@
     <t>14.97</t>
   </si>
   <si>
-    <t>221.75</t>
-  </si>
-  <si>
     <t>99.67</t>
   </si>
   <si>
@@ -125,12 +113,6 @@
     <t>15.79</t>
   </si>
   <si>
-    <t>221.84</t>
-  </si>
-  <si>
-    <t>84.81</t>
-  </si>
-  <si>
     <t>376.0</t>
   </si>
   <si>
@@ -146,12 +128,6 @@
     <t>15.32</t>
   </si>
   <si>
-    <t>223.04</t>
-  </si>
-  <si>
-    <t>130.81</t>
-  </si>
-  <si>
     <t>93.58</t>
   </si>
   <si>
@@ -167,15 +143,9 @@
     <t>Random Mutation: 5 packages; Rotations: disabled</t>
   </si>
   <si>
-    <t>218.83</t>
-  </si>
-  <si>
     <t>1.0</t>
   </si>
   <si>
-    <t>5.07</t>
-  </si>
-  <si>
     <t>113.07</t>
   </si>
   <si>
@@ -188,9 +158,6 @@
     <t>14.15</t>
   </si>
   <si>
-    <t>222.51</t>
-  </si>
-  <si>
     <t>93.82</t>
   </si>
   <si>
@@ -203,15 +170,9 @@
     <t>15.26</t>
   </si>
   <si>
-    <t>224.16</t>
-  </si>
-  <si>
     <t>86.27</t>
   </si>
   <si>
-    <t>95.69</t>
-  </si>
-  <si>
     <t>31.51</t>
   </si>
   <si>
@@ -221,9 +182,6 @@
     <t>16.07</t>
   </si>
   <si>
-    <t>224.72</t>
-  </si>
-  <si>
     <t>82.71</t>
   </si>
   <si>
@@ -236,9 +194,6 @@
     <t>15.95</t>
   </si>
   <si>
-    <t>224.83</t>
-  </si>
-  <si>
     <t>81.29</t>
   </si>
   <si>
@@ -248,9 +203,6 @@
     <t>15.73</t>
   </si>
   <si>
-    <t>225.92</t>
-  </si>
-  <si>
     <t>77.04</t>
   </si>
   <si>
@@ -263,9 +215,6 @@
     <t>Random Mutation: 10 packages; Rotations: disabled</t>
   </si>
   <si>
-    <t>221.09</t>
-  </si>
-  <si>
     <t>102.74</t>
   </si>
   <si>
@@ -278,9 +227,6 @@
     <t>15.14</t>
   </si>
   <si>
-    <t>225.76</t>
-  </si>
-  <si>
     <t>76.85</t>
   </si>
   <si>
@@ -293,9 +239,6 @@
     <t>16.01</t>
   </si>
   <si>
-    <t>226.94</t>
-  </si>
-  <si>
     <t>72.41</t>
   </si>
   <si>
@@ -308,12 +251,6 @@
     <t>16.93</t>
   </si>
   <si>
-    <t>227.55</t>
-  </si>
-  <si>
-    <t>329.88</t>
-  </si>
-  <si>
     <t>68.15</t>
   </si>
   <si>
@@ -326,9 +263,6 @@
     <t>16.75</t>
   </si>
   <si>
-    <t>228.31</t>
-  </si>
-  <si>
     <t>64.27</t>
   </si>
   <si>
@@ -341,9 +275,6 @@
     <t>16.87</t>
   </si>
   <si>
-    <t>228.41</t>
-  </si>
-  <si>
     <t>63.45</t>
   </si>
   <si>
@@ -359,15 +290,9 @@
     <t>Random Mutation: 20 packages; Rotations: disabled</t>
   </si>
   <si>
-    <t>222.59</t>
-  </si>
-  <si>
     <t>5.0</t>
   </si>
   <si>
-    <t>24.38</t>
-  </si>
-  <si>
     <t>101.0</t>
   </si>
   <si>
@@ -383,9 +308,6 @@
     <t>15.04</t>
   </si>
   <si>
-    <t>226.79</t>
-  </si>
-  <si>
     <t>28.0</t>
   </si>
   <si>
@@ -413,12 +335,6 @@
     <t>Worst runtime (ms)</t>
   </si>
   <si>
-    <t>9.72</t>
-  </si>
-  <si>
-    <t>55.01</t>
-  </si>
-  <si>
     <t>13.0</t>
   </si>
   <si>
@@ -428,18 +344,6 @@
     <t>48.0</t>
   </si>
   <si>
-    <t>30.31</t>
-  </si>
-  <si>
-    <t>172.01</t>
-  </si>
-  <si>
-    <t>135.94</t>
-  </si>
-  <si>
-    <t>286.88</t>
-  </si>
-  <si>
     <t>41.0</t>
   </si>
   <si>
@@ -479,21 +383,6 @@
     <t>40.0</t>
   </si>
   <si>
-    <t>9.35</t>
-  </si>
-  <si>
-    <t>44.36</t>
-  </si>
-  <si>
-    <t>100.89</t>
-  </si>
-  <si>
-    <t>233.5</t>
-  </si>
-  <si>
-    <t>770.31</t>
-  </si>
-  <si>
     <t>90.0</t>
   </si>
   <si>
@@ -512,9 +401,6 @@
     <t>1642.0</t>
   </si>
   <si>
-    <t>135.3</t>
-  </si>
-  <si>
     <t>454.0</t>
   </si>
   <si>
@@ -530,18 +416,12 @@
     <t>54.0</t>
   </si>
   <si>
-    <t>160.81</t>
-  </si>
-  <si>
     <t>400.0</t>
   </si>
   <si>
     <t>62.14</t>
   </si>
   <si>
-    <t>228.58</t>
-  </si>
-  <si>
     <t>31.64</t>
   </si>
   <si>
@@ -551,15 +431,9 @@
     <t>16.78</t>
   </si>
   <si>
-    <t>229.33</t>
-  </si>
-  <si>
     <t>94.0</t>
   </si>
   <si>
-    <t>576.65</t>
-  </si>
-  <si>
     <t>1399.0</t>
   </si>
   <si>
@@ -572,9 +446,6 @@
     <t>16.98</t>
   </si>
   <si>
-    <t>230.3</t>
-  </si>
-  <si>
     <t>52.94</t>
   </si>
   <si>
@@ -590,15 +461,9 @@
     <t>69.0</t>
   </si>
   <si>
-    <t>368.85</t>
-  </si>
-  <si>
     <t>941.0</t>
   </si>
   <si>
-    <t>231.05</t>
-  </si>
-  <si>
     <t>48.3</t>
   </si>
   <si>
@@ -608,21 +473,12 @@
     <t>264.0</t>
   </si>
   <si>
-    <t>769.96</t>
-  </si>
-  <si>
     <t>1926.0</t>
   </si>
   <si>
     <t>Random Mutation: 1 package; Rotations: enabled</t>
   </si>
   <si>
-    <t>193.49</t>
-  </si>
-  <si>
-    <t>4.4</t>
-  </si>
-  <si>
     <t>31.0</t>
   </si>
   <si>
@@ -638,15 +494,9 @@
     <t>14.01</t>
   </si>
   <si>
-    <t>200.23</t>
-  </si>
-  <si>
     <t>3.0</t>
   </si>
   <si>
-    <t>30.19</t>
-  </si>
-  <si>
     <t>182.0</t>
   </si>
   <si>
@@ -662,12 +512,6 @@
     <t>14.4</t>
   </si>
   <si>
-    <t>203.95</t>
-  </si>
-  <si>
-    <t>57.99</t>
-  </si>
-  <si>
     <t>247.0</t>
   </si>
   <si>
@@ -683,15 +527,9 @@
     <t>14.32</t>
   </si>
   <si>
-    <t>205.81</t>
-  </si>
-  <si>
     <t>43.0</t>
   </si>
   <si>
-    <t>129.02</t>
-  </si>
-  <si>
     <t>365.0</t>
   </si>
   <si>
@@ -707,15 +545,9 @@
     <t>14.85</t>
   </si>
   <si>
-    <t>206.34</t>
-  </si>
-  <si>
     <t>73.0</t>
   </si>
   <si>
-    <t>309.01</t>
-  </si>
-  <si>
     <t>607.0</t>
   </si>
   <si>
@@ -731,15 +563,9 @@
     <t>14.68</t>
   </si>
   <si>
-    <t>205.51</t>
-  </si>
-  <si>
     <t>18.0</t>
   </si>
   <si>
-    <t>172.11</t>
-  </si>
-  <si>
     <t>536.0</t>
   </si>
   <si>
@@ -756,6 +582,27 @@
   </si>
   <si>
     <t>Random Mutation: 5 package; Rotations: enabled</t>
+  </si>
+  <si>
+    <t>21.89</t>
+  </si>
+  <si>
+    <t>15.48</t>
+  </si>
+  <si>
+    <t>14.49</t>
+  </si>
+  <si>
+    <t>95.0</t>
+  </si>
+  <si>
+    <t>Random Mutation: 10 package; Rotations: enabled</t>
+  </si>
+  <si>
+    <t>98.6</t>
+  </si>
+  <si>
+    <t>Random Mutation: 20 package; Rotations: enabled</t>
   </si>
 </sst>
 </file>
@@ -901,7 +748,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -929,9 +776,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -944,33 +788,22 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -978,11 +811,1771 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Experiments with</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Hill Climbing, rotation: disabled</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Mutation: 1 (value)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$6:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>250.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$6:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>216.52</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>219.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>220.56</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>221.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>221.84</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>223.04</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Mutation: 5 (value)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$16:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>250.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$16:$C$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>218.83</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>222.51</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>224.16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>224.72</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>224.83</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>225.92</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Mutation: 10 (value)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$26:$A$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>250.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$26:$C$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>221.09</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>225.76</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>226.94</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>227.55</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>228.31</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>228.41</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Mutation: 20 (value)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$36:$A$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>250.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$36:$C$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>222.59</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>226.79</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>228.58</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>229.33</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>230.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>231.05</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-2135031776"/>
+        <c:axId val="-2125353344"/>
+      </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>Mutation: 1 (runtime)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$6:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>250.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$6:$F$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.720000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25.04</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>55.01</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>84.81</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>130.81</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>Mutation: 5 (runtime)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$16:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>250.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$16:$F$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>5.07</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30.31</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>95.69</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>172.01</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>135.94</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>286.88</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>Mutation: 10 (runtime)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$26:$A$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>250.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$26:$F$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>9.35</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44.36</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100.89</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>329.88</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>233.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>770.3099999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:v>Mutation: 20 (runtime)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$36:$A$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>250.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$36:$F$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>24.38</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>135.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>160.81</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>576.65</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>368.85</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>769.96</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-2129353888"/>
+        <c:axId val="-2112016368"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-2135031776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Neighbourhood</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> size</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2125353344"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2125353344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Average value</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2135031776"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2112016368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2129353888"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2129353888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2112016368"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>79375</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>476249</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>79375</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1248,26 +2841,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M61"/>
+  <dimension ref="A1:M81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="R26" sqref="R26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.625" customWidth="1"/>
-    <col min="2" max="2" width="12.625" customWidth="1"/>
-    <col min="3" max="3" width="14.625" customWidth="1"/>
-    <col min="4" max="4" width="13.125" customWidth="1"/>
-    <col min="5" max="5" width="17.375" customWidth="1"/>
-    <col min="6" max="6" width="20.625" customWidth="1"/>
+    <col min="1" max="1" width="24.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" customWidth="1"/>
+    <col min="4" max="4" width="13.1640625" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" customWidth="1"/>
+    <col min="6" max="6" width="20.6640625" customWidth="1"/>
     <col min="7" max="7" width="18.5" customWidth="1"/>
-    <col min="8" max="8" width="11.125" customWidth="1"/>
+    <col min="8" max="8" width="11.1640625" customWidth="1"/>
     <col min="9" max="9" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1275,102 +2868,102 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
     </row>
-    <row r="3" spans="1:13" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="15.95" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="H5" s="13" t="s">
+      <c r="E5" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="H5" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="12" t="s">
+      <c r="I5" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="12" t="s">
+      <c r="J5" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="12" t="s">
+      <c r="K5" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="L5" s="12" t="s">
+      <c r="L5" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="M5" s="12" t="s">
+      <c r="M5" s="11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>10</v>
       </c>
       <c r="B6" s="7">
         <v>233</v>
       </c>
-      <c r="C6" s="16" t="s">
-        <v>14</v>
+      <c r="C6" s="16">
+        <v>216.52</v>
       </c>
       <c r="D6" s="7">
         <v>189</v>
       </c>
-      <c r="E6" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="G6" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="H6" s="16">
+      <c r="E6" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F6" s="16">
+        <v>2</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="H6" s="7">
         <v>30</v>
       </c>
-      <c r="I6" s="16" t="s">
+      <c r="I6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" s="7">
+        <v>273</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="J6" s="16">
-        <v>273</v>
-      </c>
-      <c r="K6" s="16" t="s">
+      <c r="L6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="L6" s="16" t="s">
+      <c r="M6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="M6" s="20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="15.95" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>50</v>
       </c>
@@ -1383,1541 +2976,2283 @@
       <c r="D7" s="8">
         <v>200</v>
       </c>
-      <c r="E7" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="F7" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="G7" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="H7" s="17">
+      <c r="E7" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="F7" s="17">
+        <v>9.7200000000000006</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="H7" s="8">
         <v>43</v>
       </c>
-      <c r="I7" s="17" t="s">
+      <c r="I7" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" s="8">
+        <v>210</v>
+      </c>
+      <c r="K7" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="17">
-        <v>210</v>
-      </c>
-      <c r="K7" s="17" t="s">
+      <c r="L7" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="L7" s="17" t="s">
+      <c r="M7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="M7" s="21" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="15.95" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>100</v>
       </c>
       <c r="B8" s="8">
         <v>233</v>
       </c>
-      <c r="C8" s="17" t="s">
-        <v>23</v>
+      <c r="C8" s="17">
+        <v>220.56</v>
       </c>
       <c r="D8" s="8">
         <v>207</v>
       </c>
-      <c r="E8" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="F8" s="17" t="s">
+      <c r="E8" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="F8" s="17">
+        <v>25.04</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="H8" s="8">
+        <v>40</v>
+      </c>
+      <c r="I8" s="8">
+        <v>105</v>
+      </c>
+      <c r="J8" s="8">
+        <v>177</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M8" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="H8" s="17">
-        <v>40</v>
-      </c>
-      <c r="I8" s="17">
-        <v>105</v>
-      </c>
-      <c r="J8" s="17">
-        <v>177</v>
-      </c>
-      <c r="K8" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="L8" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="M8" s="21" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="15.95" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>200</v>
       </c>
       <c r="B9" s="9">
         <v>233</v>
       </c>
-      <c r="C9" s="18" t="s">
-        <v>28</v>
+      <c r="C9" s="18">
+        <v>221.75</v>
       </c>
       <c r="D9" s="9">
         <v>205</v>
       </c>
-      <c r="E9" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="F9" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="G9" s="18" t="s">
-        <v>140</v>
-      </c>
-      <c r="H9" s="18">
+      <c r="E9" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="F9" s="18">
+        <v>55.01</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="H9" s="9">
         <v>40</v>
       </c>
-      <c r="I9" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="J9" s="18">
+      <c r="I9" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="J9" s="9">
         <v>190</v>
       </c>
-      <c r="K9" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="L9" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="M9" s="22" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="15.95" x14ac:dyDescent="0.25">
+      <c r="K9" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>250</v>
       </c>
       <c r="B10" s="9">
         <v>233</v>
       </c>
-      <c r="C10" s="18" t="s">
-        <v>33</v>
+      <c r="C10" s="18">
+        <v>221.84</v>
       </c>
       <c r="D10" s="9">
         <v>207</v>
       </c>
-      <c r="E10" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="F10" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="G10" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="H10" s="18">
+      <c r="E10" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="F10" s="18">
+        <v>84.81</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" s="9">
         <v>40</v>
       </c>
-      <c r="I10" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="J10" s="18">
+      <c r="I10" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="J10" s="9">
         <v>179</v>
       </c>
-      <c r="K10" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="L10" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="M10" s="22" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="15.95" x14ac:dyDescent="0.25">
+      <c r="K10" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L10" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
         <v>500</v>
       </c>
       <c r="B11" s="10">
         <v>234</v>
       </c>
-      <c r="C11" s="19" t="s">
-        <v>40</v>
+      <c r="C11" s="19">
+        <v>223.04</v>
       </c>
       <c r="D11" s="10">
         <v>210</v>
       </c>
-      <c r="E11" s="19" t="s">
-        <v>125</v>
-      </c>
-      <c r="F11" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="G11" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="H11" s="19">
+      <c r="E11" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="F11" s="19">
+        <v>130.81</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="H11" s="10">
         <v>22</v>
       </c>
-      <c r="I11" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="J11" s="19">
+      <c r="I11" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="J11" s="10">
         <v>172</v>
       </c>
-      <c r="K11" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="L11" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="M11" s="23" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="15.95" x14ac:dyDescent="0.25">
+      <c r="K11" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="L11" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="C12" s="15"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="15.95" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E15" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="H15" s="13" t="s">
+      <c r="E15" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="H15" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="I15" s="12" t="s">
+      <c r="I15" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="J15" s="12" t="s">
+      <c r="J15" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="K15" s="12" t="s">
+      <c r="K15" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="L15" s="12" t="s">
+      <c r="L15" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="M15" s="12" t="s">
+      <c r="M15" s="11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>10</v>
       </c>
       <c r="B16" s="7">
         <v>234</v>
       </c>
-      <c r="C16" s="7" t="s">
-        <v>47</v>
+      <c r="C16" s="16">
+        <v>218.83</v>
       </c>
       <c r="D16" s="7">
         <v>204</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>49</v>
+        <v>39</v>
+      </c>
+      <c r="F16" s="16">
+        <v>5.07</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>142</v>
+        <v>110</v>
       </c>
       <c r="H16" s="7">
         <v>34</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J16" s="7">
         <v>193</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="M16" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="15.95" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>50</v>
       </c>
       <c r="B17" s="8">
         <v>238</v>
       </c>
-      <c r="C17" s="8" t="s">
-        <v>54</v>
+      <c r="C17" s="17">
+        <v>222.51</v>
       </c>
       <c r="D17" s="8">
         <v>206</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>134</v>
+        <v>88</v>
+      </c>
+      <c r="F17" s="17">
+        <v>30.31</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>143</v>
+        <v>111</v>
       </c>
       <c r="H17" s="9">
         <v>22</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="J17" s="8">
         <v>175</v>
       </c>
       <c r="K17" s="8" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="L17" s="8" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="15.95" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>100</v>
       </c>
       <c r="B18" s="8">
         <v>238</v>
       </c>
-      <c r="C18" s="8" t="s">
-        <v>59</v>
+      <c r="C18" s="17">
+        <v>224.16</v>
       </c>
       <c r="D18" s="8">
         <v>210</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>61</v>
+        <v>103</v>
+      </c>
+      <c r="F18" s="17">
+        <v>95.69</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>144</v>
+        <v>112</v>
       </c>
       <c r="H18" s="9">
         <v>22</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="J18" s="8">
         <v>168</v>
       </c>
       <c r="K18" s="8" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="L18" s="8" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="15.95" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="9">
         <v>200</v>
       </c>
       <c r="B19" s="9">
         <v>238</v>
       </c>
-      <c r="C19" s="9" t="s">
-        <v>65</v>
+      <c r="C19" s="18">
+        <v>224.72</v>
       </c>
       <c r="D19" s="9">
         <v>212</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>135</v>
+        <v>99</v>
+      </c>
+      <c r="F19" s="18">
+        <v>172.01</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>145</v>
+        <v>113</v>
       </c>
       <c r="H19" s="9">
         <v>22</v>
       </c>
       <c r="I19" s="9" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="J19" s="9">
         <v>150</v>
       </c>
       <c r="K19" s="9" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="L19" s="9" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="M19" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="15.95" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="9">
         <v>250</v>
       </c>
       <c r="B20" s="9">
         <v>238</v>
       </c>
-      <c r="C20" s="9" t="s">
-        <v>70</v>
+      <c r="C20" s="18">
+        <v>224.83</v>
       </c>
       <c r="D20" s="9">
         <v>214</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>136</v>
+        <v>104</v>
+      </c>
+      <c r="F20" s="18">
+        <v>135.94</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>146</v>
+        <v>114</v>
       </c>
       <c r="H20" s="9">
         <v>22</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="J20" s="9">
         <v>149</v>
       </c>
       <c r="K20" s="9" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="L20" s="9" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="M20" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="15.95" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="10">
         <v>500</v>
       </c>
       <c r="B21" s="10">
         <v>238</v>
       </c>
-      <c r="C21" s="14" t="s">
-        <v>74</v>
+      <c r="C21" s="19">
+        <v>225.92</v>
       </c>
       <c r="D21" s="10">
         <v>210</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="F21" s="10" t="s">
-        <v>137</v>
+        <v>105</v>
+      </c>
+      <c r="F21" s="19">
+        <v>286.88</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>147</v>
+        <v>115</v>
       </c>
       <c r="H21" s="10">
         <v>22</v>
       </c>
       <c r="I21" s="10" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="J21" s="10">
         <v>159</v>
       </c>
-      <c r="K21" s="14">
+      <c r="K21" s="13">
         <v>31611</v>
       </c>
       <c r="L21" s="10" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="M21" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="15.95" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="15.95" x14ac:dyDescent="0.25">
-      <c r="A25" s="12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="C25" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D25" s="12" t="s">
+      <c r="D25" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E25" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="F25" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="G25" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="H25" s="13" t="s">
+      <c r="E25" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="H25" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="I25" s="12" t="s">
+      <c r="I25" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="J25" s="12" t="s">
+      <c r="J25" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="K25" s="12" t="s">
+      <c r="K25" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="L25" s="12" t="s">
+      <c r="L25" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="M25" s="12" t="s">
+      <c r="M25" s="11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
         <v>10</v>
       </c>
       <c r="B26" s="7">
         <v>232</v>
       </c>
-      <c r="C26" s="7" t="s">
-        <v>79</v>
+      <c r="C26" s="16">
+        <v>221.09</v>
       </c>
       <c r="D26" s="7">
         <v>204</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>151</v>
+        <v>39</v>
+      </c>
+      <c r="F26" s="16">
+        <v>9.35</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>156</v>
+        <v>119</v>
       </c>
       <c r="H26" s="7">
         <v>40</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="J26" s="7">
         <v>198</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="M26" s="6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" ht="15.95" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="8">
         <v>50</v>
       </c>
       <c r="B27" s="8">
         <v>234</v>
       </c>
-      <c r="C27" s="8" t="s">
-        <v>84</v>
+      <c r="C27" s="17">
+        <v>225.76</v>
       </c>
       <c r="D27" s="8">
         <v>214</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="F27" s="11" t="s">
-        <v>152</v>
+        <v>116</v>
+      </c>
+      <c r="F27" s="17">
+        <v>44.36</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>157</v>
+        <v>120</v>
       </c>
       <c r="H27" s="9">
         <v>34</v>
       </c>
       <c r="I27" s="8" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="J27" s="8">
         <v>134</v>
       </c>
       <c r="K27" s="8" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="L27" s="8" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" ht="15.95" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
         <v>100</v>
       </c>
       <c r="B28" s="8">
         <v>235</v>
       </c>
-      <c r="C28" s="8" t="s">
-        <v>89</v>
+      <c r="C28" s="17">
+        <v>226.94</v>
       </c>
       <c r="D28" s="8">
         <v>211</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="F28" s="8" t="s">
-        <v>153</v>
+        <v>110</v>
+      </c>
+      <c r="F28" s="17">
+        <v>100.89</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>158</v>
+        <v>121</v>
       </c>
       <c r="H28" s="9">
         <v>34</v>
       </c>
       <c r="I28" s="8" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="J28" s="8">
         <v>167</v>
       </c>
       <c r="K28" s="8" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="L28" s="8" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" ht="15.95" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="9">
         <v>200</v>
       </c>
       <c r="B29" s="9">
         <v>237</v>
       </c>
-      <c r="C29" s="9" t="s">
-        <v>94</v>
+      <c r="C29" s="18">
+        <v>227.55</v>
       </c>
       <c r="D29" s="9">
         <v>212</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="F29" s="9" t="s">
-        <v>95</v>
+        <v>117</v>
+      </c>
+      <c r="F29" s="18">
+        <v>329.88</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>159</v>
+        <v>122</v>
       </c>
       <c r="H29" s="9">
         <v>22</v>
       </c>
       <c r="I29" s="9" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="J29" s="9">
         <v>152</v>
       </c>
       <c r="K29" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="L29" s="15" t="s">
-        <v>98</v>
+        <v>76</v>
+      </c>
+      <c r="L29" s="14" t="s">
+        <v>77</v>
       </c>
       <c r="M29" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" ht="15.95" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="9">
         <v>250</v>
       </c>
       <c r="B30" s="9">
         <v>238</v>
       </c>
-      <c r="C30" s="9" t="s">
-        <v>100</v>
+      <c r="C30" s="18">
+        <v>228.31</v>
       </c>
       <c r="D30" s="9">
         <v>216</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="F30" s="9" t="s">
-        <v>154</v>
+        <v>118</v>
+      </c>
+      <c r="F30" s="18">
+        <v>233.5</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>160</v>
+        <v>123</v>
       </c>
       <c r="H30" s="9">
         <v>22</v>
       </c>
       <c r="I30" s="9" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="J30" s="9">
         <v>128</v>
       </c>
       <c r="K30" s="9" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="L30" s="9" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="M30" s="4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" ht="15.95" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="10">
         <v>500</v>
       </c>
       <c r="B31" s="10">
         <v>238</v>
       </c>
-      <c r="C31" s="14" t="s">
-        <v>105</v>
+      <c r="C31" s="19">
+        <v>228.41</v>
       </c>
       <c r="D31" s="10">
         <v>217</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="F31" s="10" t="s">
-        <v>155</v>
+        <v>107</v>
+      </c>
+      <c r="F31" s="19">
+        <v>770.31</v>
       </c>
       <c r="G31" s="10" t="s">
-        <v>161</v>
+        <v>124</v>
       </c>
       <c r="H31" s="10">
         <v>22</v>
       </c>
       <c r="I31" s="10" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="J31" s="10">
         <v>118</v>
       </c>
-      <c r="K31" s="14" t="s">
-        <v>107</v>
+      <c r="K31" s="13" t="s">
+        <v>84</v>
       </c>
       <c r="L31" s="10" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="M31" s="5" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" ht="15.95" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" ht="15.95" x14ac:dyDescent="0.25">
-      <c r="A35" s="12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B35" s="12" t="s">
+      <c r="B35" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C35" s="12" t="s">
+      <c r="C35" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D35" s="12" t="s">
+      <c r="D35" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E35" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="F35" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="G35" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="H35" s="13" t="s">
+      <c r="E35" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="G35" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="H35" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="I35" s="12" t="s">
+      <c r="I35" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="J35" s="12" t="s">
+      <c r="J35" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="K35" s="12" t="s">
+      <c r="K35" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="L35" s="12" t="s">
+      <c r="L35" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="M35" s="12" t="s">
+      <c r="M35" s="11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="15.95" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="7">
         <v>10</v>
       </c>
       <c r="B36" s="7">
         <v>234</v>
       </c>
-      <c r="C36" s="7" t="s">
-        <v>111</v>
+      <c r="C36" s="16">
+        <v>222.59</v>
       </c>
       <c r="D36" s="7">
         <v>210</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>113</v>
+        <v>88</v>
+      </c>
+      <c r="F36" s="16">
+        <v>24.38</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="H36" s="7">
         <v>22</v>
       </c>
       <c r="I36" s="7" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="J36" s="7">
         <v>170</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>117</v>
+        <v>92</v>
       </c>
       <c r="M36" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" ht="15.95" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="8">
         <v>50</v>
       </c>
       <c r="B37" s="8">
         <v>238</v>
       </c>
-      <c r="C37" s="8" t="s">
-        <v>119</v>
+      <c r="C37" s="17">
+        <v>226.79</v>
       </c>
       <c r="D37" s="8">
         <v>207</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="F37" s="11" t="s">
-        <v>162</v>
+        <v>94</v>
+      </c>
+      <c r="F37" s="17">
+        <v>135.30000000000001</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>163</v>
+        <v>125</v>
       </c>
       <c r="H37" s="9">
         <v>22</v>
       </c>
       <c r="I37" s="8" t="s">
-        <v>164</v>
+        <v>126</v>
       </c>
       <c r="J37" s="8">
         <v>184</v>
       </c>
       <c r="K37" s="8" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="L37" s="8" t="s">
-        <v>165</v>
+        <v>127</v>
       </c>
       <c r="M37" s="3" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" ht="15.95" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="8">
         <v>100</v>
       </c>
       <c r="B38" s="8">
         <v>238</v>
       </c>
-      <c r="C38" s="8" t="s">
-        <v>171</v>
+      <c r="C38" s="17">
+        <v>228.58</v>
       </c>
       <c r="D38" s="8">
         <v>213</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="F38" s="8" t="s">
-        <v>168</v>
+        <v>129</v>
+      </c>
+      <c r="F38" s="17">
+        <v>160.81</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>169</v>
+        <v>130</v>
       </c>
       <c r="H38" s="9">
         <v>22</v>
       </c>
       <c r="I38" s="8" t="s">
-        <v>170</v>
+        <v>131</v>
       </c>
       <c r="J38" s="8">
         <v>154</v>
       </c>
       <c r="K38" s="8" t="s">
-        <v>172</v>
+        <v>132</v>
       </c>
       <c r="L38" s="8" t="s">
-        <v>173</v>
+        <v>133</v>
       </c>
       <c r="M38" s="3" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" ht="15.95" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="9">
         <v>200</v>
       </c>
       <c r="B39" s="9">
         <v>238</v>
       </c>
-      <c r="C39" s="9" t="s">
-        <v>175</v>
+      <c r="C39" s="18">
+        <v>229.33</v>
       </c>
       <c r="D39" s="9">
         <v>216</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="F39" s="9" t="s">
-        <v>177</v>
+        <v>135</v>
+      </c>
+      <c r="F39" s="18">
+        <v>576.65</v>
       </c>
       <c r="G39" s="9" t="s">
-        <v>178</v>
+        <v>136</v>
       </c>
       <c r="H39" s="9">
         <v>22</v>
       </c>
       <c r="I39" s="9" t="s">
-        <v>179</v>
+        <v>137</v>
       </c>
       <c r="J39" s="9">
         <v>130</v>
       </c>
       <c r="K39" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="L39" s="15" t="s">
-        <v>82</v>
+        <v>138</v>
+      </c>
+      <c r="L39" s="14" t="s">
+        <v>65</v>
       </c>
       <c r="M39" s="4" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" ht="15.95" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="9">
         <v>250</v>
       </c>
       <c r="B40" s="9">
         <v>238</v>
       </c>
-      <c r="C40" s="9" t="s">
-        <v>182</v>
+      <c r="C40" s="18">
+        <v>230.3</v>
       </c>
       <c r="D40" s="9">
         <v>220</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="F40" s="9" t="s">
-        <v>188</v>
+        <v>144</v>
+      </c>
+      <c r="F40" s="18">
+        <v>368.85</v>
       </c>
       <c r="G40" s="9" t="s">
-        <v>189</v>
+        <v>145</v>
       </c>
       <c r="H40" s="9">
         <v>22</v>
       </c>
       <c r="I40" s="9" t="s">
-        <v>183</v>
+        <v>140</v>
       </c>
       <c r="J40" s="9">
         <v>109</v>
       </c>
       <c r="K40" s="9" t="s">
-        <v>184</v>
+        <v>141</v>
       </c>
       <c r="L40" s="9" t="s">
-        <v>185</v>
+        <v>142</v>
       </c>
       <c r="M40" s="4" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" ht="15.95" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="10">
         <v>500</v>
       </c>
       <c r="B41" s="10">
         <v>238</v>
       </c>
-      <c r="C41" s="14" t="s">
-        <v>190</v>
+      <c r="C41" s="19">
+        <v>231.05</v>
       </c>
       <c r="D41" s="10">
         <v>220</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="F41" s="10" t="s">
-        <v>194</v>
+        <v>148</v>
+      </c>
+      <c r="F41" s="19">
+        <v>769.96</v>
       </c>
       <c r="G41" s="10" t="s">
-        <v>195</v>
+        <v>149</v>
       </c>
       <c r="H41" s="10">
         <v>22</v>
       </c>
       <c r="I41" s="10" t="s">
-        <v>191</v>
+        <v>146</v>
       </c>
       <c r="J41" s="10">
         <v>108</v>
       </c>
-      <c r="K41" s="14" t="s">
-        <v>192</v>
+      <c r="K41" s="13" t="s">
+        <v>147</v>
       </c>
       <c r="L41" s="10" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="M41" s="5" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A45" s="12" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A45" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B45" s="12" t="s">
+      <c r="B45" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C45" s="12" t="s">
+      <c r="C45" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D45" s="12" t="s">
+      <c r="D45" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E45" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="F45" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="G45" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="H45" s="13" t="s">
+      <c r="E45" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="F45" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="G45" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="H45" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="I45" s="12" t="s">
+      <c r="I45" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="J45" s="12" t="s">
+      <c r="J45" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="K45" s="12" t="s">
+      <c r="K45" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="L45" s="12" t="s">
+      <c r="L45" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="M45" s="12" t="s">
+      <c r="M45" s="11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" s="7">
         <v>10</v>
       </c>
       <c r="B46" s="7">
         <v>216</v>
       </c>
-      <c r="C46" s="7" t="s">
-        <v>197</v>
+      <c r="C46" s="16">
+        <v>193.49</v>
       </c>
       <c r="D46" s="7">
         <v>173</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F46" s="7" t="s">
-        <v>198</v>
+        <v>39</v>
+      </c>
+      <c r="F46" s="16">
+        <v>4.4000000000000004</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>199</v>
+        <v>151</v>
       </c>
       <c r="H46" s="7">
         <v>124</v>
       </c>
       <c r="I46" s="7" t="s">
-        <v>200</v>
+        <v>152</v>
       </c>
       <c r="J46" s="7">
         <v>353</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>201</v>
+        <v>153</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>202</v>
+        <v>154</v>
       </c>
       <c r="M46" s="6" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" s="8">
         <v>50</v>
       </c>
       <c r="B47" s="8">
         <v>218</v>
       </c>
-      <c r="C47" s="8" t="s">
-        <v>204</v>
+      <c r="C47" s="17">
+        <v>200.23</v>
       </c>
       <c r="D47" s="8">
         <v>185</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="F47" s="8" t="s">
-        <v>206</v>
+        <v>156</v>
+      </c>
+      <c r="F47" s="17">
+        <v>30.19</v>
       </c>
       <c r="G47" s="8" t="s">
-        <v>207</v>
+        <v>157</v>
       </c>
       <c r="H47" s="8">
         <v>100</v>
       </c>
       <c r="I47" s="8" t="s">
-        <v>208</v>
+        <v>158</v>
       </c>
       <c r="J47" s="8">
         <v>284</v>
       </c>
       <c r="K47" s="8" t="s">
-        <v>209</v>
+        <v>159</v>
       </c>
       <c r="L47" s="8" t="s">
-        <v>210</v>
+        <v>160</v>
       </c>
       <c r="M47" s="3" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" s="8">
         <v>100</v>
       </c>
       <c r="B48" s="8">
         <v>219</v>
       </c>
-      <c r="C48" s="8" t="s">
-        <v>212</v>
+      <c r="C48" s="17">
+        <v>203.95</v>
       </c>
       <c r="D48" s="8">
         <v>185</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="F48" s="8" t="s">
-        <v>213</v>
+        <v>88</v>
+      </c>
+      <c r="F48" s="17">
+        <v>57.99</v>
       </c>
       <c r="G48" s="8" t="s">
-        <v>214</v>
+        <v>162</v>
       </c>
       <c r="H48" s="8">
         <v>101</v>
       </c>
       <c r="I48" s="8" t="s">
-        <v>215</v>
+        <v>163</v>
       </c>
       <c r="J48" s="8">
         <v>279</v>
       </c>
       <c r="K48" s="8" t="s">
-        <v>216</v>
+        <v>164</v>
       </c>
       <c r="L48" s="8" t="s">
-        <v>217</v>
+        <v>165</v>
       </c>
       <c r="M48" s="3" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" s="9">
         <v>200</v>
       </c>
       <c r="B49" s="9">
         <v>220</v>
       </c>
-      <c r="C49" s="9" t="s">
-        <v>219</v>
+      <c r="C49" s="18">
+        <v>205.81</v>
       </c>
       <c r="D49" s="9">
         <v>190</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>220</v>
-      </c>
-      <c r="F49" s="9" t="s">
-        <v>221</v>
+        <v>167</v>
+      </c>
+      <c r="F49" s="18">
+        <v>129.02000000000001</v>
       </c>
       <c r="G49" s="9" t="s">
-        <v>222</v>
+        <v>168</v>
       </c>
       <c r="H49" s="9">
         <v>100</v>
       </c>
       <c r="I49" s="9" t="s">
-        <v>223</v>
+        <v>169</v>
       </c>
       <c r="J49" s="9">
         <v>262</v>
       </c>
       <c r="K49" s="9" t="s">
-        <v>224</v>
+        <v>170</v>
       </c>
       <c r="L49" s="9" t="s">
-        <v>225</v>
+        <v>171</v>
       </c>
       <c r="M49" s="4" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" s="9">
         <v>250</v>
       </c>
       <c r="B50" s="9">
         <v>221</v>
       </c>
-      <c r="C50" s="9" t="s">
-        <v>235</v>
+      <c r="C50" s="18">
+        <v>205.51</v>
       </c>
       <c r="D50" s="9">
         <v>195</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="F50" s="9" t="s">
-        <v>237</v>
+        <v>179</v>
+      </c>
+      <c r="F50" s="18">
+        <v>172.11</v>
       </c>
       <c r="G50" s="9" t="s">
-        <v>238</v>
+        <v>180</v>
       </c>
       <c r="H50" s="9">
         <v>90</v>
       </c>
       <c r="I50" s="9" t="s">
-        <v>239</v>
+        <v>181</v>
       </c>
       <c r="J50" s="9">
         <v>230</v>
       </c>
       <c r="K50" s="9" t="s">
-        <v>240</v>
+        <v>182</v>
       </c>
       <c r="L50" s="9" t="s">
-        <v>241</v>
+        <v>183</v>
       </c>
       <c r="M50" s="4" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" s="10">
         <v>500</v>
       </c>
       <c r="B51" s="10">
         <v>222</v>
       </c>
-      <c r="C51" s="10" t="s">
-        <v>227</v>
+      <c r="C51" s="19">
+        <v>206.34</v>
       </c>
       <c r="D51" s="10">
         <v>191</v>
       </c>
       <c r="E51" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="F51" s="10" t="s">
-        <v>229</v>
+        <v>173</v>
+      </c>
+      <c r="F51" s="19">
+        <v>309.01</v>
       </c>
       <c r="G51" s="10" t="s">
-        <v>230</v>
+        <v>174</v>
       </c>
       <c r="H51" s="10">
         <v>92</v>
       </c>
       <c r="I51" s="10" t="s">
-        <v>231</v>
+        <v>175</v>
       </c>
       <c r="J51" s="10">
         <v>244</v>
       </c>
       <c r="K51" s="10" t="s">
-        <v>232</v>
+        <v>176</v>
       </c>
       <c r="L51" s="10" t="s">
-        <v>233</v>
+        <v>177</v>
       </c>
       <c r="M51" s="5" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A55" s="12" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A55" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B55" s="12" t="s">
+      <c r="B55" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C55" s="12" t="s">
+      <c r="C55" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D55" s="12" t="s">
+      <c r="D55" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E55" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="F55" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="G55" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="H55" s="13" t="s">
+      <c r="E55" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="F55" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="G55" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="H55" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="I55" s="12" t="s">
+      <c r="I55" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="J55" s="12" t="s">
+      <c r="J55" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="K55" s="12" t="s">
+      <c r="K55" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="L55" s="12" t="s">
+      <c r="L55" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="M55" s="12" t="s">
+      <c r="M55" s="11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" s="7">
         <v>10</v>
       </c>
-      <c r="B56" s="7"/>
-      <c r="C56" s="7"/>
-      <c r="D56" s="7"/>
-      <c r="E56" s="7"/>
-      <c r="F56" s="7"/>
-      <c r="G56" s="7"/>
-      <c r="H56" s="7"/>
-      <c r="I56" s="7"/>
-      <c r="J56" s="7"/>
-      <c r="K56" s="7"/>
-      <c r="L56" s="7"/>
-      <c r="M56" s="6"/>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B56" s="7">
+        <v>215</v>
+      </c>
+      <c r="C56" s="7">
+        <v>200.04</v>
+      </c>
+      <c r="D56" s="7">
+        <v>183</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F56" s="7">
+        <v>13.42</v>
+      </c>
+      <c r="G56" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="H56" s="7">
+        <v>118</v>
+      </c>
+      <c r="I56" s="7">
+        <v>207.01</v>
+      </c>
+      <c r="J56" s="7">
+        <v>302</v>
+      </c>
+      <c r="K56" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="L56" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="M56" s="6" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57" s="8">
         <v>50</v>
       </c>
-      <c r="B57" s="8"/>
-      <c r="C57" s="8"/>
-      <c r="D57" s="8"/>
-      <c r="E57" s="8"/>
-      <c r="F57" s="8"/>
-      <c r="G57" s="8"/>
-      <c r="H57" s="8"/>
-      <c r="I57" s="8"/>
-      <c r="J57" s="8"/>
-      <c r="K57" s="8"/>
-      <c r="L57" s="8"/>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B57" s="8">
+        <v>223</v>
+      </c>
+      <c r="C57" s="8">
+        <v>210.96</v>
+      </c>
+      <c r="D57" s="8">
+        <v>193</v>
+      </c>
+      <c r="E57" s="8">
+        <v>27</v>
+      </c>
+      <c r="F57" s="8">
+        <v>141.6</v>
+      </c>
+      <c r="G57" s="8">
+        <v>447</v>
+      </c>
+      <c r="H57" s="8">
+        <v>83</v>
+      </c>
+      <c r="I57" s="8">
+        <v>148.79</v>
+      </c>
+      <c r="J57" s="8">
+        <v>242</v>
+      </c>
+      <c r="K57" s="8">
+        <v>23.82</v>
+      </c>
+      <c r="L57" s="8">
+        <v>15.33</v>
+      </c>
+      <c r="M57" s="3">
+        <v>15.53</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58" s="8">
         <v>100</v>
       </c>
-      <c r="B58" s="8"/>
-      <c r="C58" s="8"/>
-      <c r="D58" s="8"/>
-      <c r="E58" s="8"/>
-      <c r="F58" s="8"/>
-      <c r="G58" s="8"/>
-      <c r="H58" s="8"/>
-      <c r="I58" s="8"/>
-      <c r="J58" s="8"/>
-      <c r="K58" s="8"/>
-      <c r="L58" s="8"/>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B58" s="8">
+        <v>224</v>
+      </c>
+      <c r="C58" s="8">
+        <v>214.19</v>
+      </c>
+      <c r="D58" s="8">
+        <v>200</v>
+      </c>
+      <c r="E58" s="8">
+        <v>76</v>
+      </c>
+      <c r="F58" s="8">
+        <v>339.18</v>
+      </c>
+      <c r="G58" s="8">
+        <v>881</v>
+      </c>
+      <c r="H58" s="8">
+        <v>77</v>
+      </c>
+      <c r="I58" s="8">
+        <v>127.53</v>
+      </c>
+      <c r="J58" s="8">
+        <v>203</v>
+      </c>
+      <c r="K58" s="8">
+        <v>22.98</v>
+      </c>
+      <c r="L58" s="8">
+        <v>16.850000000000001</v>
+      </c>
+      <c r="M58" s="3">
+        <v>15.57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59" s="9">
         <v>200</v>
       </c>
-      <c r="B59" s="9"/>
-      <c r="C59" s="9"/>
-      <c r="D59" s="9"/>
-      <c r="E59" s="9"/>
-      <c r="F59" s="9"/>
-      <c r="G59" s="9"/>
-      <c r="H59" s="9"/>
-      <c r="I59" s="9"/>
-      <c r="J59" s="9"/>
-      <c r="K59" s="9"/>
-      <c r="L59" s="9"/>
-      <c r="M59" s="4"/>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B59" s="9">
+        <v>231</v>
+      </c>
+      <c r="C59" s="9">
+        <v>218.33</v>
+      </c>
+      <c r="D59" s="9">
+        <v>206</v>
+      </c>
+      <c r="E59" s="9">
+        <v>149</v>
+      </c>
+      <c r="F59" s="9">
+        <v>479.82</v>
+      </c>
+      <c r="G59" s="9">
+        <v>1019</v>
+      </c>
+      <c r="H59" s="9">
+        <v>40</v>
+      </c>
+      <c r="I59" s="9">
+        <v>105.03</v>
+      </c>
+      <c r="J59" s="9">
+        <v>166</v>
+      </c>
+      <c r="K59" s="9">
+        <v>23.7</v>
+      </c>
+      <c r="L59" s="9">
+        <v>16.97</v>
+      </c>
+      <c r="M59" s="4">
+        <v>15.87</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60" s="9">
         <v>250</v>
       </c>
-      <c r="B60" s="9"/>
-      <c r="C60" s="9"/>
-      <c r="D60" s="9"/>
-      <c r="E60" s="9"/>
-      <c r="F60" s="9"/>
-      <c r="G60" s="9"/>
-      <c r="H60" s="9"/>
-      <c r="I60" s="9"/>
-      <c r="J60" s="9"/>
-      <c r="K60" s="9"/>
-      <c r="L60" s="9"/>
-      <c r="M60" s="4"/>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B60" s="9">
+        <v>231</v>
+      </c>
+      <c r="C60" s="9">
+        <v>218.53</v>
+      </c>
+      <c r="D60" s="9">
+        <v>209</v>
+      </c>
+      <c r="E60" s="9">
+        <v>137</v>
+      </c>
+      <c r="F60" s="9">
+        <v>595.29</v>
+      </c>
+      <c r="G60" s="9">
+        <v>1471</v>
+      </c>
+      <c r="H60" s="9">
+        <v>42</v>
+      </c>
+      <c r="I60" s="9">
+        <v>103.68</v>
+      </c>
+      <c r="J60" s="9">
+        <v>157</v>
+      </c>
+      <c r="K60" s="9">
+        <v>23.55</v>
+      </c>
+      <c r="L60" s="9">
+        <v>17.07</v>
+      </c>
+      <c r="M60" s="4">
+        <v>15.92</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61" s="10">
         <v>500</v>
       </c>
-      <c r="B61" s="10"/>
-      <c r="C61" s="10"/>
-      <c r="D61" s="10"/>
-      <c r="E61" s="10"/>
-      <c r="F61" s="10"/>
-      <c r="G61" s="10"/>
-      <c r="H61" s="10"/>
-      <c r="I61" s="10"/>
-      <c r="J61" s="10"/>
-      <c r="K61" s="10"/>
-      <c r="L61" s="10"/>
-      <c r="M61" s="5"/>
+      <c r="B61" s="10">
+        <v>234</v>
+      </c>
+      <c r="C61" s="10">
+        <v>219.98</v>
+      </c>
+      <c r="D61" s="10">
+        <v>209</v>
+      </c>
+      <c r="E61" s="10">
+        <v>443</v>
+      </c>
+      <c r="F61" s="10">
+        <v>1310.5899999999999</v>
+      </c>
+      <c r="G61" s="10">
+        <v>2441</v>
+      </c>
+      <c r="H61" s="10">
+        <v>18</v>
+      </c>
+      <c r="I61" s="10">
+        <v>95.71</v>
+      </c>
+      <c r="J61" s="10">
+        <v>150</v>
+      </c>
+      <c r="K61" s="10">
+        <v>23.57</v>
+      </c>
+      <c r="L61" s="10">
+        <v>17.13</v>
+      </c>
+      <c r="M61" s="5">
+        <v>16.149999999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A63" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A64" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A65" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B65" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C65" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D65" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E65" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="F65" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="G65" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="H65" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I65" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J65" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="K65" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="L65" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="M65" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A66" s="7">
+        <v>10</v>
+      </c>
+      <c r="B66" s="7">
+        <v>217</v>
+      </c>
+      <c r="C66" s="7">
+        <v>200.93</v>
+      </c>
+      <c r="D66" s="7">
+        <v>184</v>
+      </c>
+      <c r="E66" s="7">
+        <v>2</v>
+      </c>
+      <c r="F66" s="7">
+        <v>21.11</v>
+      </c>
+      <c r="G66" s="7">
+        <v>191</v>
+      </c>
+      <c r="H66" s="7">
+        <v>122</v>
+      </c>
+      <c r="I66" s="7">
+        <v>202.22</v>
+      </c>
+      <c r="J66" s="7">
+        <v>289</v>
+      </c>
+      <c r="K66" s="7">
+        <v>22.45</v>
+      </c>
+      <c r="L66" s="7">
+        <v>15.52</v>
+      </c>
+      <c r="M66" s="6">
+        <v>14.3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A67" s="8">
+        <v>50</v>
+      </c>
+      <c r="B67" s="8">
+        <v>227</v>
+      </c>
+      <c r="C67" s="8">
+        <v>212.45</v>
+      </c>
+      <c r="D67" s="8">
+        <v>194</v>
+      </c>
+      <c r="E67" s="8">
+        <v>15</v>
+      </c>
+      <c r="F67" s="8">
+        <v>137.72</v>
+      </c>
+      <c r="G67" s="8">
+        <v>525</v>
+      </c>
+      <c r="H67" s="8">
+        <v>71</v>
+      </c>
+      <c r="I67" s="8">
+        <v>141.30000000000001</v>
+      </c>
+      <c r="J67" s="8">
+        <v>234</v>
+      </c>
+      <c r="K67" s="8">
+        <v>24.21</v>
+      </c>
+      <c r="L67" s="8">
+        <v>15.13</v>
+      </c>
+      <c r="M67" s="3">
+        <v>15.86</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A68" s="8">
+        <v>100</v>
+      </c>
+      <c r="B68" s="8">
+        <v>229</v>
+      </c>
+      <c r="C68" s="8">
+        <v>216.22</v>
+      </c>
+      <c r="D68" s="8">
+        <v>197</v>
+      </c>
+      <c r="E68" s="8">
+        <v>117</v>
+      </c>
+      <c r="F68" s="8">
+        <v>349.26</v>
+      </c>
+      <c r="G68" s="8">
+        <v>1022</v>
+      </c>
+      <c r="H68" s="8">
+        <v>58</v>
+      </c>
+      <c r="I68" s="8">
+        <v>119.17</v>
+      </c>
+      <c r="J68" s="8">
+        <v>202</v>
+      </c>
+      <c r="K68" s="8">
+        <v>24.95</v>
+      </c>
+      <c r="L68" s="8">
+        <v>15.93</v>
+      </c>
+      <c r="M68" s="3">
+        <v>15.53</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A69" s="9">
+        <v>200</v>
+      </c>
+      <c r="B69" s="9">
+        <v>231</v>
+      </c>
+      <c r="C69" s="9">
+        <v>219.92</v>
+      </c>
+      <c r="D69" s="9">
+        <v>208</v>
+      </c>
+      <c r="E69" s="9">
+        <v>310</v>
+      </c>
+      <c r="F69" s="9">
+        <v>701.31</v>
+      </c>
+      <c r="G69" s="9">
+        <v>1485</v>
+      </c>
+      <c r="H69" s="9">
+        <v>30</v>
+      </c>
+      <c r="I69" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="J69" s="9">
+        <v>157</v>
+      </c>
+      <c r="K69" s="9">
+        <v>25</v>
+      </c>
+      <c r="L69" s="9">
+        <v>16.18</v>
+      </c>
+      <c r="M69" s="4">
+        <v>16.04</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A70" s="9">
+        <v>250</v>
+      </c>
+      <c r="B70" s="9">
+        <v>235</v>
+      </c>
+      <c r="C70" s="9">
+        <v>220.4</v>
+      </c>
+      <c r="D70" s="9">
+        <v>205</v>
+      </c>
+      <c r="E70" s="9">
+        <v>256</v>
+      </c>
+      <c r="F70" s="9">
+        <v>929.8</v>
+      </c>
+      <c r="G70" s="9">
+        <v>1791</v>
+      </c>
+      <c r="H70" s="9">
+        <v>29</v>
+      </c>
+      <c r="I70" s="9">
+        <v>95.17</v>
+      </c>
+      <c r="J70" s="9">
+        <v>172</v>
+      </c>
+      <c r="K70" s="9">
+        <v>24.77</v>
+      </c>
+      <c r="L70" s="9">
+        <v>16.510000000000002</v>
+      </c>
+      <c r="M70" s="4">
+        <v>16.010000000000002</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A71" s="10">
+        <v>500</v>
+      </c>
+      <c r="B71" s="10">
+        <v>235</v>
+      </c>
+      <c r="C71" s="10">
+        <v>222.45</v>
+      </c>
+      <c r="D71" s="10">
+        <v>212</v>
+      </c>
+      <c r="E71" s="10">
+        <v>478</v>
+      </c>
+      <c r="F71" s="10">
+        <v>1676.42</v>
+      </c>
+      <c r="G71" s="10">
+        <v>2925</v>
+      </c>
+      <c r="H71" s="10">
+        <v>34</v>
+      </c>
+      <c r="I71" s="10">
+        <v>84.7</v>
+      </c>
+      <c r="J71" s="10">
+        <v>150</v>
+      </c>
+      <c r="K71" s="10">
+        <v>24.77</v>
+      </c>
+      <c r="L71" s="10">
+        <v>16.260000000000002</v>
+      </c>
+      <c r="M71" s="5">
+        <v>16.62</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A73" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A74" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A75" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B75" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C75" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D75" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E75" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="F75" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="G75" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="H75" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I75" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J75" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="K75" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="L75" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="M75" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A76" s="7">
+        <v>10</v>
+      </c>
+      <c r="B76" s="7">
+        <v>218</v>
+      </c>
+      <c r="C76" s="7">
+        <v>199.86</v>
+      </c>
+      <c r="D76" s="7">
+        <v>185</v>
+      </c>
+      <c r="E76" s="7">
+        <v>7</v>
+      </c>
+      <c r="F76" s="7">
+        <v>32.840000000000003</v>
+      </c>
+      <c r="G76" s="7">
+        <v>159</v>
+      </c>
+      <c r="H76" s="7">
+        <v>110</v>
+      </c>
+      <c r="I76" s="7">
+        <v>206.82</v>
+      </c>
+      <c r="J76" s="7">
+        <v>279</v>
+      </c>
+      <c r="K76" s="7">
+        <v>20.64</v>
+      </c>
+      <c r="L76" s="7">
+        <v>15.86</v>
+      </c>
+      <c r="M76" s="6">
+        <v>14.9</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A77" s="8">
+        <v>50</v>
+      </c>
+      <c r="B77" s="8">
+        <v>220</v>
+      </c>
+      <c r="C77" s="8">
+        <v>209.18</v>
+      </c>
+      <c r="D77" s="8">
+        <v>194</v>
+      </c>
+      <c r="E77" s="8">
+        <v>32</v>
+      </c>
+      <c r="F77" s="8">
+        <v>215.77</v>
+      </c>
+      <c r="G77" s="8">
+        <v>637</v>
+      </c>
+      <c r="H77" s="8">
+        <v>99</v>
+      </c>
+      <c r="I77" s="8">
+        <v>158.94</v>
+      </c>
+      <c r="J77" s="8">
+        <v>235</v>
+      </c>
+      <c r="K77" s="8">
+        <v>23.52</v>
+      </c>
+      <c r="L77" s="8">
+        <v>15.08</v>
+      </c>
+      <c r="M77" s="3">
+        <v>15.66</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A78" s="8">
+        <v>100</v>
+      </c>
+      <c r="B78" s="8">
+        <v>226</v>
+      </c>
+      <c r="C78" s="8">
+        <v>212.74</v>
+      </c>
+      <c r="D78" s="8">
+        <v>197</v>
+      </c>
+      <c r="E78" s="8">
+        <v>60</v>
+      </c>
+      <c r="F78" s="8">
+        <v>313.79000000000002</v>
+      </c>
+      <c r="G78" s="8">
+        <v>645</v>
+      </c>
+      <c r="H78" s="8">
+        <v>78</v>
+      </c>
+      <c r="I78" s="8">
+        <v>140.68</v>
+      </c>
+      <c r="J78" s="8">
+        <v>217</v>
+      </c>
+      <c r="K78" s="8">
+        <v>24.38</v>
+      </c>
+      <c r="L78" s="8">
+        <v>14.75</v>
+      </c>
+      <c r="M78" s="3">
+        <v>16.12</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A79" s="9">
+        <v>200</v>
+      </c>
+      <c r="B79" s="9">
+        <v>228</v>
+      </c>
+      <c r="C79" s="9">
+        <v>215.72</v>
+      </c>
+      <c r="D79" s="9">
+        <v>202</v>
+      </c>
+      <c r="E79" s="9">
+        <v>214</v>
+      </c>
+      <c r="F79" s="9">
+        <v>675.24</v>
+      </c>
+      <c r="G79" s="9">
+        <v>1226</v>
+      </c>
+      <c r="H79" s="9">
+        <v>68</v>
+      </c>
+      <c r="I79" s="9">
+        <v>125.85</v>
+      </c>
+      <c r="J79" s="9">
+        <v>200</v>
+      </c>
+      <c r="K79" s="9">
+        <v>25.29</v>
+      </c>
+      <c r="L79" s="9">
+        <v>14.3</v>
+      </c>
+      <c r="M79" s="4">
+        <v>16.53</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A80" s="9">
+        <v>250</v>
+      </c>
+      <c r="B80" s="9">
+        <v>228</v>
+      </c>
+      <c r="C80" s="9">
+        <v>216.36</v>
+      </c>
+      <c r="D80" s="9">
+        <v>206</v>
+      </c>
+      <c r="E80" s="9">
+        <v>285</v>
+      </c>
+      <c r="F80" s="9">
+        <v>917.7</v>
+      </c>
+      <c r="G80" s="9">
+        <v>2095</v>
+      </c>
+      <c r="H80" s="9">
+        <v>66</v>
+      </c>
+      <c r="I80" s="9">
+        <v>121.42</v>
+      </c>
+      <c r="J80" s="9">
+        <v>175</v>
+      </c>
+      <c r="K80" s="9">
+        <v>25.34</v>
+      </c>
+      <c r="L80" s="9">
+        <v>14.71</v>
+      </c>
+      <c r="M80" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A81" s="10">
+        <v>500</v>
+      </c>
+      <c r="B81" s="10">
+        <v>232</v>
+      </c>
+      <c r="C81" s="10">
+        <v>218.54</v>
+      </c>
+      <c r="D81" s="10">
+        <v>203</v>
+      </c>
+      <c r="E81" s="10">
+        <v>803</v>
+      </c>
+      <c r="F81" s="10">
+        <v>2739.65</v>
+      </c>
+      <c r="G81" s="10">
+        <v>4735</v>
+      </c>
+      <c r="H81" s="10">
+        <v>33</v>
+      </c>
+      <c r="I81" s="10">
+        <v>108.9</v>
+      </c>
+      <c r="J81" s="10">
+        <v>185</v>
+      </c>
+      <c r="K81" s="10">
+        <v>25.32</v>
+      </c>
+      <c r="L81" s="10">
+        <v>15.02</v>
+      </c>
+      <c r="M81" s="5">
+        <v>16.5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>